--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -529,7 +529,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>regionSource</t>
+    <t>regionSource : JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
     <t>HealthcareService.implicitRules</t>
@@ -680,7 +680,7 @@
     <t>typeTerritorialDivision</t>
   </si>
   <si>
-    <t>type</t>
+    <t>type : JDV-J223-TypeDivisionTerritoriale-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-territorial-division.extension:typeTerritorialDivision.id</t>
@@ -741,7 +741,7 @@
     <t>codeTerritorialDivision</t>
   </si>
   <si>
-    <t>code</t>
+    <t>code : JDV-J124-Commune, JDV-J248-DepartementOM-ROR, JDV-J237-RegionOM-ROR, JDV-J249-TerritoireSante-ROR, JDV-J247-Pays-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-territorial-division.extension:codeTerritorialDivision.id</t>
@@ -866,7 +866,7 @@
     <t>supportedPatientInfo</t>
   </si>
   <si>
-    <t>publicPrisEnCharge</t>
+    <t>publicPrisEnCharge : JDV-J29-PublicPrisEnCharge-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-patient-type.extension:supportedPatientInfo.id</t>
@@ -1046,7 +1046,7 @@
     <t>Extension créée dans le cadre du ROR qui indique un titre, une position ou une fonction de la personne assurant le contact au sein de l'organisation (directeur, secrétaire, etc.).</t>
   </si>
   <si>
-    <t>fonctionContact</t>
+    <t>fonctionContact : JDV-J220-FonctionContact-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-contact.extension:purposeContact</t>
@@ -1055,7 +1055,7 @@
     <t>purposeContact</t>
   </si>
   <si>
-    <t>natureContact</t>
+    <t>natureContact : JDV-J221-NatureContact-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-contact.extension:purposeContact.id</t>
@@ -1104,7 +1104,7 @@
     <t>Extension créée dans le cadre du ROR pour définir le niveau de restriction de l'accès aux attributs de la classe Contact.</t>
   </si>
   <si>
-    <t>niveauConfidentialite</t>
+    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-contact.extension:ror-healthcareservice-contact-telecom</t>
@@ -1142,7 +1142,7 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>canal</t>
+    <t>canal : JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-contact.extension:ror-healthcareservice-contact-telecom.extension:ror-telecom-usage</t>
@@ -1358,7 +1358,7 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>typeOffre</t>
+    <t>typeOffre : JDV-J238-TypeOffre-ROR</t>
   </si>
   <si>
     <t>HealthcareService.type</t>
@@ -1383,7 +1383,7 @@
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
   </si>
   <si>
-    <t>champActivite</t>
+    <t>champActivite : JDV-J20-ChampActivite-ROR</t>
   </si>
   <si>
     <t>HealthcareService.specialty</t>
@@ -1417,7 +1417,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J17-ActiviteOperationnelle-ROR/FHIR/JDV-J17-ActiviteOperationnelle-ROR</t>
   </si>
   <si>
-    <t>ActiviteOperationnelle.activiteOperationnelle</t>
+    <t>ActiviteOperationnelle.activiteOperationnelle : JDV-J17-ActiviteOperationnelle-ROR</t>
   </si>
   <si>
     <t>HealthcareService.specialty:operationalActivityFamily</t>
@@ -1432,7 +1432,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J51-FamilleActiviteOperationnelle-ROR/FHIR/JDV-J51-FamilleActiviteOperationnelle-ROR</t>
   </si>
   <si>
-    <t>ActiviteOperationnelle.familleActiviteOperationnelle</t>
+    <t>ActiviteOperationnelle.familleActiviteOperationnelle : JDV-J51-FamilleActiviteOperationnelle-ROR</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
@@ -1573,7 +1573,7 @@
     <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>adresseMSS.canal</t>
+    <t>adresseMSS.canal : JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>HealthcareService.telecom.extension:ror-telecom-usage</t>
@@ -1591,7 +1591,7 @@
     <t>niveauConfidentialite (Telecommunication) : Niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
   </si>
   <si>
-    <t>adresseMSS.niveauConfidentialite</t>
+    <t>adresseMSS.niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
   <si>
     <t>HealthcareService.telecom.system</t>
@@ -1928,7 +1928,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
-    <t>temporaliteAccueil</t>
+    <t>temporaliteAccueil : JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:receptionType.id</t>
@@ -1958,7 +1958,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J19-ModePriseEnCharge-ROR/FHIR/JDV-J19-ModePriseEnCharge-ROR</t>
   </si>
   <si>
-    <t>modePriseEnCharge</t>
+    <t>modePriseEnCharge : JDV-J19-ModePriseEnCharge-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:careMode.id</t>
@@ -1988,7 +1988,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J226-ModaliteAccueil-ROR/FHIR/JDV-J226-ModaliteAccueil-ROR</t>
   </si>
   <si>
-    <t>modaliteAccueil</t>
+    <t>modaliteAccueil : JDV-J226-ModaliteAccueil-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:receptionModality.id</t>
@@ -2018,7 +2018,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J26-ModeGestion-ROR/FHIR/JDV-J26-ModeGestion-ROR</t>
   </si>
   <si>
-    <t>modeGestion</t>
+    <t>modeGestion : JDV-J26-ModeGestion-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:managementType.id</t>
@@ -2048,7 +2048,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J16-ActeSpecifique-ROR/FHIR/JDV-J16-ActeSpecifique-ROR</t>
   </si>
   <si>
-    <t>acteSpecifique</t>
+    <t>acteSpecifique : JDV-J16-ActeSpecifique-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:specificAct.id</t>
@@ -2105,7 +2105,7 @@
     <t>acteRealiseHorsCabinet (OffreOperationnelle) : Permet de décrire l’offre de santé des médecins libéraux réalisée en dehors du cabinet, au sein d’un établissement</t>
   </si>
   <si>
-    <t>acteRealiseHorsCabinet</t>
+    <t>acteRealiseHorsCabinet : JDV-J16-ActeSpecifique-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:outsideOfficeAct.id</t>
@@ -2147,7 +2147,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J35-SpecialisationDePriseEnCharge-ROR/FHIR/JDV-J35-SpecialisationDePriseEnCharge-ROR</t>
   </si>
   <si>
-    <t>specialisationPriseEnCharge</t>
+    <t>specialisationPriseEnCharge : JDV-J35-SpecialisationDePriseEnCharge-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:takingCareSpeciality.id</t>
@@ -2177,7 +2177,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J28-OuvertureAnnuelle-ROR/FHIR/JDV-J28-OuvertureAnnuelle-ROR</t>
   </si>
   <si>
-    <t>ouvertureAnnuelle</t>
+    <t>ouvertureAnnuelle : JDV-J28-OuvertureAnnuelle-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:annualOpening.id</t>
@@ -2207,7 +2207,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J186-ProfessionRessource-ROR/FHIR/JDV-J186-ProfessionRessource-ROR</t>
   </si>
   <si>
-    <t>professionRessource</t>
+    <t>professionRessource : JDV-J186-ProfessionRessource-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:ressourceProfession.id</t>
@@ -2237,7 +2237,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
   </si>
   <si>
-    <t>competenceSpecifique</t>
+    <t>competenceSpecifique : JDV-J33-CompetenceSpecifique-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:specificCompetence.id</t>
@@ -2267,7 +2267,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J227-NiveauExpertise-ROR/FHIR/JDV-J227-NiveauExpertise-ROR</t>
   </si>
   <si>
-    <t>niveauExpertise</t>
+    <t>niveauExpertise : JDV-J227-NiveauExpertise-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:expertiseLevel.id</t>
@@ -2297,7 +2297,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J185-TypeFermeture-ROR/FHIR/JDV-J185-TypeFermeture-ROR</t>
   </si>
   <si>
-    <t>typeFermeture</t>
+    <t>typeFermeture : JDV-J185-TypeFermeture-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:temporalityStopService.id</t>
@@ -2394,7 +2394,7 @@
     <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
-    <t>typePlageHoraire</t>
+    <t>typePlageHoraire : JDV-J41-TypeHoraire-ROR</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
@@ -3056,7 +3056,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="72.5234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="125.484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
